--- a/team_specific_matrix/South Dakota St._B.xlsx
+++ b/team_specific_matrix/South Dakota St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2079207920792079</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="C2">
-        <v>0.5495049504950495</v>
+        <v>0.5582329317269076</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004950495049504951</v>
+        <v>0.004016064257028112</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1732673267326733</v>
+        <v>0.1726907630522088</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06435643564356436</v>
+        <v>0.06024096385542169</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01639344262295082</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="C3">
-        <v>0.02459016393442623</v>
+        <v>0.03311258278145696</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03278688524590164</v>
+        <v>0.03973509933774835</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7459016393442623</v>
+        <v>0.7350993377483444</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.180327868852459</v>
+        <v>0.1788079470198675</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07142857142857142</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7142857142857143</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2142857142857143</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04827586206896552</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06896551724137931</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2137931034482759</v>
+        <v>0.1978021978021978</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03448275862068965</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1172413793103448</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="R6">
-        <v>0.1241379310344828</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="S6">
-        <v>0.3931034482758621</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1818181818181818</v>
+        <v>0.1696969696969697</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08333333333333333</v>
+        <v>0.07878787878787878</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.007575757575757576</v>
+        <v>0.02424242424242424</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1590909090909091</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="R7">
-        <v>0.09090909090909091</v>
+        <v>0.08484848484848485</v>
       </c>
       <c r="S7">
-        <v>0.3863636363636364</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07536231884057971</v>
+        <v>0.07289293849658314</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01739130434782609</v>
+        <v>0.01366742596810934</v>
       </c>
       <c r="E8">
-        <v>0.002898550724637681</v>
+        <v>0.002277904328018223</v>
       </c>
       <c r="F8">
-        <v>0.07246376811594203</v>
+        <v>0.06605922551252848</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1159420289855072</v>
+        <v>0.1116173120728929</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01159420289855072</v>
+        <v>0.009111617312072893</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1681159420289855</v>
+        <v>0.1708428246013667</v>
       </c>
       <c r="R8">
-        <v>0.1101449275362319</v>
+        <v>0.1116173120728929</v>
       </c>
       <c r="S8">
-        <v>0.4260869565217391</v>
+        <v>0.4419134396355353</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06666666666666667</v>
+        <v>0.06310679611650485</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0303030303030303</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06666666666666667</v>
+        <v>0.07281553398058252</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.103030303030303</v>
+        <v>0.1116504854368932</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01818181818181818</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1636363636363636</v>
+        <v>0.1699029126213592</v>
       </c>
       <c r="R9">
-        <v>0.1212121212121212</v>
+        <v>0.1262135922330097</v>
       </c>
       <c r="S9">
-        <v>0.4303030303030303</v>
+        <v>0.412621359223301</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09005235602094241</v>
+        <v>0.09098567818028644</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01780104712041885</v>
+        <v>0.01853411962931761</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.001684919966301601</v>
       </c>
       <c r="F10">
-        <v>0.05654450261780105</v>
+        <v>0.05728727885425442</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1403141361256544</v>
+        <v>0.1322662173546756</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02303664921465969</v>
+        <v>0.02274641954507161</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1675392670157068</v>
+        <v>0.1735467565290649</v>
       </c>
       <c r="R10">
-        <v>0.1141361256544503</v>
+        <v>0.1120471777590564</v>
       </c>
       <c r="S10">
-        <v>0.3905759162303665</v>
+        <v>0.3909014321819714</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1435406698564593</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07177033492822966</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="K11">
-        <v>0.1913875598086124</v>
+        <v>0.1843137254901961</v>
       </c>
       <c r="L11">
-        <v>0.583732057416268</v>
+        <v>0.592156862745098</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009569377990430622</v>
+        <v>0.007843137254901961</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.704</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.248</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="L12">
-        <v>0.024</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.024</v>
+        <v>0.02564102564102564</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6451612903225806</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3548387096774194</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1283,28 +1283,28 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.154639175257732</v>
+        <v>0.1570247933884298</v>
       </c>
       <c r="I15">
-        <v>0.06185567010309279</v>
+        <v>0.04958677685950413</v>
       </c>
       <c r="J15">
-        <v>0.3762886597938144</v>
+        <v>0.3925619834710744</v>
       </c>
       <c r="K15">
-        <v>0.06701030927835051</v>
+        <v>0.05785123966942149</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02577319587628866</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06701030927835051</v>
+        <v>0.07024793388429752</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2474226804123711</v>
+        <v>0.2479338842975207</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007142857142857143</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1357142857142857</v>
+        <v>0.1436781609195402</v>
       </c>
       <c r="I16">
-        <v>0.1071428571428571</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="J16">
-        <v>0.4428571428571428</v>
+        <v>0.4425287356321839</v>
       </c>
       <c r="K16">
-        <v>0.1142857142857143</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02857142857142857</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="N16">
-        <v>0.007142857142857143</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="O16">
-        <v>0.04285714285714286</v>
+        <v>0.04022988505747126</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1142857142857143</v>
+        <v>0.1149425287356322</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.006896551724137931</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.196551724137931</v>
+        <v>0.2049180327868853</v>
       </c>
       <c r="I17">
-        <v>0.07241379310344828</v>
+        <v>0.07103825136612021</v>
       </c>
       <c r="J17">
-        <v>0.3931034482758621</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="K17">
-        <v>0.09655172413793103</v>
+        <v>0.09562841530054644</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01724137931034483</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="N17">
-        <v>0.003448275862068965</v>
+        <v>0.00273224043715847</v>
       </c>
       <c r="O17">
-        <v>0.1068965517241379</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1068965517241379</v>
+        <v>0.1065573770491803</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005</v>
+        <v>0.01224489795918367</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.195</v>
+        <v>0.1959183673469388</v>
       </c>
       <c r="I18">
-        <v>0.07000000000000001</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="J18">
-        <v>0.485</v>
+        <v>0.4530612244897959</v>
       </c>
       <c r="K18">
-        <v>0.08</v>
+        <v>0.07346938775510205</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01</v>
+        <v>0.00816326530612245</v>
       </c>
       <c r="N18">
-        <v>0.005</v>
+        <v>0.004081632653061225</v>
       </c>
       <c r="O18">
-        <v>0.055</v>
+        <v>0.0653061224489796</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.095</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01067235859124867</v>
+        <v>0.009251471825063078</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2145144076840982</v>
+        <v>0.2144659377628259</v>
       </c>
       <c r="I19">
-        <v>0.1109925293489861</v>
+        <v>0.1093355761143818</v>
       </c>
       <c r="J19">
-        <v>0.3489861259338314</v>
+        <v>0.3507148864592094</v>
       </c>
       <c r="K19">
-        <v>0.1067235859124867</v>
+        <v>0.1042893187552565</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02027748132337246</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.08858057630736393</v>
+        <v>0.08494533221194281</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09925293489861259</v>
+        <v>0.1026072329688814</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/South Dakota St._B.xlsx
+++ b/team_specific_matrix/South Dakota St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2048192771084337</v>
+        <v>0.2022900763358779</v>
       </c>
       <c r="C2">
-        <v>0.5582329317269076</v>
+        <v>0.5648854961832062</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004016064257028112</v>
+        <v>0.003816793893129771</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1726907630522088</v>
+        <v>0.1717557251908397</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06024096385542169</v>
+        <v>0.05725190839694656</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01324503311258278</v>
+        <v>0.0125</v>
       </c>
       <c r="C3">
-        <v>0.03311258278145696</v>
+        <v>0.03125</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03973509933774835</v>
+        <v>0.0375</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7350993377483444</v>
+        <v>0.74375</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1788079470198675</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05882352941176471</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7058823529411765</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2352941176470588</v>
+        <v>0.2571428571428571</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05494505494505494</v>
+        <v>0.0541871921182266</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07142857142857142</v>
+        <v>0.06403940886699508</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1978021978021978</v>
+        <v>0.2118226600985222</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03296703296703297</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1098901098901099</v>
+        <v>0.1182266009852217</v>
       </c>
       <c r="R6">
-        <v>0.1098901098901099</v>
+        <v>0.1083743842364532</v>
       </c>
       <c r="S6">
-        <v>0.4230769230769231</v>
+        <v>0.4088669950738916</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1696969696969697</v>
+        <v>0.1657142857142857</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07878787878787878</v>
+        <v>0.08</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09090909090909091</v>
+        <v>0.09714285714285714</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02424242424242424</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1515151515151515</v>
+        <v>0.1485714285714286</v>
       </c>
       <c r="R7">
-        <v>0.08484848484848485</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="S7">
         <v>0.4</v>
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07289293849658314</v>
+        <v>0.07099391480730223</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01366742596810934</v>
+        <v>0.01217038539553753</v>
       </c>
       <c r="E8">
-        <v>0.002277904328018223</v>
+        <v>0.002028397565922921</v>
       </c>
       <c r="F8">
-        <v>0.06605922551252848</v>
+        <v>0.06288032454361055</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1116173120728929</v>
+        <v>0.1156186612576065</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.009111617312072893</v>
+        <v>0.008113590263691683</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1708428246013667</v>
+        <v>0.18052738336714</v>
       </c>
       <c r="R8">
-        <v>0.1116173120728929</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="S8">
-        <v>0.4419134396355353</v>
+        <v>0.4300202839756592</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06310679611650485</v>
+        <v>0.06008583690987124</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02912621359223301</v>
+        <v>0.02575107296137339</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07281553398058252</v>
+        <v>0.0815450643776824</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1116504854368932</v>
+        <v>0.1373390557939914</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01456310679611651</v>
+        <v>0.0128755364806867</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1699029126213592</v>
+        <v>0.167381974248927</v>
       </c>
       <c r="R9">
-        <v>0.1262135922330097</v>
+        <v>0.1158798283261803</v>
       </c>
       <c r="S9">
-        <v>0.412621359223301</v>
+        <v>0.3991416309012876</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09098567818028644</v>
+        <v>0.0861280487804878</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01853411962931761</v>
+        <v>0.01753048780487805</v>
       </c>
       <c r="E10">
-        <v>0.001684919966301601</v>
+        <v>0.001524390243902439</v>
       </c>
       <c r="F10">
-        <v>0.05728727885425442</v>
+        <v>0.0586890243902439</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1322662173546756</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02274641954507161</v>
+        <v>0.02286585365853658</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1735467565290649</v>
+        <v>0.1745426829268293</v>
       </c>
       <c r="R10">
-        <v>0.1120471777590564</v>
+        <v>0.1112804878048781</v>
       </c>
       <c r="S10">
-        <v>0.3909014321819714</v>
+        <v>0.3810975609756098</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1333333333333333</v>
+        <v>0.1301115241635688</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08235294117647059</v>
+        <v>0.07806691449814127</v>
       </c>
       <c r="K11">
-        <v>0.1843137254901961</v>
+        <v>0.1784386617100372</v>
       </c>
       <c r="L11">
-        <v>0.592156862745098</v>
+        <v>0.6059479553903345</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007843137254901961</v>
+        <v>0.007434944237918215</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6923076923076923</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2564102564102564</v>
+        <v>0.2738095238095238</v>
       </c>
       <c r="K12">
-        <v>0.00641025641025641</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="L12">
-        <v>0.01923076923076923</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02564102564102564</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6818181818181818</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3181818181818182</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.0196078431372549</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.003816793893129771</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1570247933884298</v>
+        <v>0.1564885496183206</v>
       </c>
       <c r="I15">
-        <v>0.04958677685950413</v>
+        <v>0.04961832061068702</v>
       </c>
       <c r="J15">
-        <v>0.3925619834710744</v>
+        <v>0.3893129770992366</v>
       </c>
       <c r="K15">
-        <v>0.05785123966942149</v>
+        <v>0.05343511450381679</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02479338842975207</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07024793388429752</v>
+        <v>0.07633587786259542</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2479338842975207</v>
+        <v>0.2480916030534351</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01149425287356322</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1436781609195402</v>
+        <v>0.1358695652173913</v>
       </c>
       <c r="I16">
-        <v>0.103448275862069</v>
+        <v>0.1032608695652174</v>
       </c>
       <c r="J16">
-        <v>0.4425287356321839</v>
+        <v>0.4402173913043478</v>
       </c>
       <c r="K16">
-        <v>0.1149425287356322</v>
+        <v>0.1141304347826087</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02298850574712644</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="N16">
-        <v>0.005747126436781609</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="O16">
-        <v>0.04022988505747126</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1149425287356322</v>
+        <v>0.1141304347826087</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01092896174863388</v>
+        <v>0.01213592233009709</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2049180327868853</v>
+        <v>0.2111650485436893</v>
       </c>
       <c r="I17">
-        <v>0.07103825136612021</v>
+        <v>0.0703883495145631</v>
       </c>
       <c r="J17">
-        <v>0.3934426229508197</v>
+        <v>0.4029126213592233</v>
       </c>
       <c r="K17">
-        <v>0.09562841530054644</v>
+        <v>0.09223300970873786</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01639344262295082</v>
+        <v>0.01699029126213592</v>
       </c>
       <c r="N17">
-        <v>0.00273224043715847</v>
+        <v>0.002427184466019417</v>
       </c>
       <c r="O17">
-        <v>0.09836065573770492</v>
+        <v>0.09223300970873786</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1065573770491803</v>
+        <v>0.09951456310679611</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01224489795918367</v>
+        <v>0.01107011070110701</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1959183673469388</v>
+        <v>0.1918819188191882</v>
       </c>
       <c r="I18">
-        <v>0.08571428571428572</v>
+        <v>0.0996309963099631</v>
       </c>
       <c r="J18">
-        <v>0.4530612244897959</v>
+        <v>0.4428044280442804</v>
       </c>
       <c r="K18">
-        <v>0.07346938775510205</v>
+        <v>0.07749077490774908</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.00816326530612245</v>
+        <v>0.007380073800738007</v>
       </c>
       <c r="N18">
-        <v>0.004081632653061225</v>
+        <v>0.003690036900369004</v>
       </c>
       <c r="O18">
-        <v>0.0653061224489796</v>
+        <v>0.07011070110701106</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1020408163265306</v>
+        <v>0.0959409594095941</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009251471825063078</v>
+        <v>0.009404388714733543</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2144659377628259</v>
+        <v>0.2225705329153605</v>
       </c>
       <c r="I19">
-        <v>0.1093355761143818</v>
+        <v>0.1073667711598746</v>
       </c>
       <c r="J19">
-        <v>0.3507148864592094</v>
+        <v>0.353448275862069</v>
       </c>
       <c r="K19">
-        <v>0.1042893187552565</v>
+        <v>0.1010971786833856</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02439024390243903</v>
+        <v>0.0274294670846395</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.08494533221194281</v>
+        <v>0.08072100313479624</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1026072329688814</v>
+        <v>0.09796238244514106</v>
       </c>
     </row>
   </sheetData>
